--- a/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>BRAG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42766</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42035</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66800</v>
+        <v>81100</v>
       </c>
       <c r="E8" s="3">
-        <v>38200</v>
+        <v>64500</v>
       </c>
       <c r="F8" s="3">
+        <v>37000</v>
+      </c>
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
-        <v>15400</v>
-      </c>
       <c r="H8" s="3">
-        <v>1600</v>
+        <v>14900</v>
       </c>
       <c r="I8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37700</v>
+        <v>41700</v>
       </c>
       <c r="E9" s="3">
-        <v>20900</v>
+        <v>36500</v>
       </c>
       <c r="F9" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
+      <c r="H9" s="3">
+        <v>8000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -760,26 +766,29 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>29000</v>
+        <v>39400</v>
       </c>
       <c r="E10" s="3">
-        <v>17300</v>
+        <v>28100</v>
       </c>
       <c r="F10" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
+      <c r="H10" s="3">
+        <v>6900</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -787,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -818,18 +831,21 @@
       <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="3">
-        <v>900</v>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,63 +870,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16500</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="3">
-        <v>7700</v>
+        <v>15900</v>
       </c>
       <c r="F14" s="3">
-        <v>15800</v>
+        <v>7400</v>
       </c>
       <c r="G14" s="3">
-        <v>18200</v>
+        <v>15300</v>
       </c>
       <c r="H14" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4100</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>6700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
       </c>
       <c r="H15" s="3">
+        <v>800</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>500</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +944,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>83900</v>
+        <v>90100</v>
       </c>
       <c r="E17" s="3">
-        <v>49900</v>
+        <v>81100</v>
       </c>
       <c r="F17" s="3">
-        <v>8000</v>
+        <v>48200</v>
       </c>
       <c r="G17" s="3">
-        <v>47400</v>
+        <v>7700</v>
       </c>
       <c r="H17" s="3">
-        <v>7200</v>
+        <v>45800</v>
       </c>
       <c r="I17" s="3">
-        <v>9200</v>
+        <v>7000</v>
       </c>
       <c r="J17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K17" s="3">
         <v>8500</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17100</v>
+        <v>-9000</v>
       </c>
       <c r="E18" s="3">
-        <v>-11600</v>
+        <v>-16500</v>
       </c>
       <c r="F18" s="3">
-        <v>-6800</v>
+        <v>-11200</v>
       </c>
       <c r="G18" s="3">
-        <v>-32000</v>
+        <v>-6600</v>
       </c>
       <c r="H18" s="3">
-        <v>-5700</v>
+        <v>-30900</v>
       </c>
       <c r="I18" s="3">
-        <v>-7300</v>
+        <v>-5500</v>
       </c>
       <c r="J18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,19 +1018,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1500</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2500</v>
+        <v>-1400</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1007,107 +1040,119 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-14400</v>
+        <v>-4900</v>
       </c>
       <c r="E21" s="3">
-        <v>-11100</v>
+        <v>-15000</v>
       </c>
       <c r="F21" s="3">
-        <v>-6100</v>
+        <v>-12800</v>
       </c>
       <c r="G21" s="3">
-        <v>-31100</v>
+        <v>-5800</v>
       </c>
       <c r="H21" s="3">
-        <v>-5100</v>
+        <v>-30400</v>
       </c>
       <c r="I21" s="3">
-        <v>-6500</v>
+        <v>-4900</v>
       </c>
       <c r="J21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5400</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19100</v>
+        <v>-9300</v>
       </c>
       <c r="E23" s="3">
-        <v>-14100</v>
+        <v>-18500</v>
       </c>
       <c r="F23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1120,9 +1165,12 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20800</v>
+        <v>-10400</v>
       </c>
       <c r="E26" s="3">
-        <v>-14900</v>
+        <v>-20100</v>
       </c>
       <c r="F26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-6900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20800</v>
+        <v>-10400</v>
       </c>
       <c r="E27" s="3">
-        <v>-14900</v>
+        <v>-20100</v>
       </c>
       <c r="F27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,26 +1285,29 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
-        <v>-2300</v>
-      </c>
       <c r="F29" s="3">
-        <v>-13100</v>
+        <v>-2200</v>
       </c>
       <c r="G29" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="H29" s="3">
         <v>100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,20 +1375,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1500</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1331,41 +1400,47 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20900</v>
+        <v>-10400</v>
       </c>
       <c r="E33" s="3">
-        <v>-17200</v>
+        <v>-20200</v>
       </c>
       <c r="F33" s="3">
-        <v>-19900</v>
+        <v>-16600</v>
       </c>
       <c r="G33" s="3">
-        <v>-32200</v>
+        <v>-19300</v>
       </c>
       <c r="H33" s="3">
-        <v>-5700</v>
+        <v>-31100</v>
       </c>
       <c r="I33" s="3">
-        <v>-7200</v>
+        <v>-5500</v>
       </c>
       <c r="J33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20900</v>
+        <v>-10400</v>
       </c>
       <c r="E35" s="3">
-        <v>-17200</v>
+        <v>-20200</v>
       </c>
       <c r="F35" s="3">
-        <v>-19900</v>
+        <v>-16600</v>
       </c>
       <c r="G35" s="3">
-        <v>-32200</v>
+        <v>-19300</v>
       </c>
       <c r="H35" s="3">
-        <v>-5700</v>
+        <v>-31100</v>
       </c>
       <c r="I35" s="3">
-        <v>-7200</v>
+        <v>-5500</v>
       </c>
       <c r="J35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42766</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42035</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,35 +1561,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37500</v>
+        <v>22300</v>
       </c>
       <c r="E41" s="3">
-        <v>1000</v>
+        <v>36300</v>
       </c>
       <c r="F41" s="3">
-        <v>20200</v>
+        <v>900</v>
       </c>
       <c r="G41" s="3">
-        <v>6900</v>
+        <v>19500</v>
       </c>
       <c r="H41" s="3">
-        <v>4900</v>
+        <v>6700</v>
       </c>
       <c r="I41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,36 +1618,42 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15000</v>
+        <v>11800</v>
       </c>
       <c r="E43" s="3">
-        <v>8900</v>
+        <v>14500</v>
       </c>
       <c r="F43" s="3">
-        <v>15100</v>
+        <v>8600</v>
       </c>
       <c r="G43" s="3">
-        <v>4800</v>
+        <v>14600</v>
       </c>
       <c r="H43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,71 +1678,80 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>900</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
       </c>
       <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
       <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>52900</v>
+        <v>37500</v>
       </c>
       <c r="E46" s="3">
-        <v>12000</v>
+        <v>51200</v>
       </c>
       <c r="F46" s="3">
-        <v>14000</v>
+        <v>11600</v>
       </c>
       <c r="G46" s="3">
-        <v>4800</v>
+        <v>13600</v>
       </c>
       <c r="H46" s="3">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="I46" s="3">
-        <v>2200</v>
+        <v>5100</v>
       </c>
       <c r="J46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
@@ -1664,26 +1768,29 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
         <v>1400</v>
       </c>
       <c r="F48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -1691,36 +1798,42 @@
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45700</v>
+        <v>72000</v>
       </c>
       <c r="E49" s="3">
-        <v>49600</v>
+        <v>44100</v>
       </c>
       <c r="F49" s="3">
-        <v>50600</v>
+        <v>48000</v>
       </c>
       <c r="G49" s="3">
-        <v>9900</v>
+        <v>48900</v>
       </c>
       <c r="H49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3">
-        <v>2400</v>
-      </c>
       <c r="J49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,26 +1888,29 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600</v>
+        <v>5300</v>
       </c>
       <c r="E52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="H52" s="3">
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -1799,9 +1918,12 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1948,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>103700</v>
+        <v>115900</v>
       </c>
       <c r="E54" s="3">
-        <v>63100</v>
+        <v>100200</v>
       </c>
       <c r="F54" s="3">
-        <v>65100</v>
+        <v>61000</v>
       </c>
       <c r="G54" s="3">
-        <v>15000</v>
+        <v>62900</v>
       </c>
       <c r="H54" s="3">
-        <v>5400</v>
+        <v>14500</v>
       </c>
       <c r="I54" s="3">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="J54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3700</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,35 +2009,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
-        <v>12700</v>
+        <v>8900</v>
       </c>
       <c r="F57" s="3">
-        <v>11500</v>
+        <v>12300</v>
       </c>
       <c r="G57" s="3">
-        <v>4900</v>
+        <v>11100</v>
       </c>
       <c r="H57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1916,95 +2049,104 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>400</v>
-      </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33800</v>
+        <v>19100</v>
       </c>
       <c r="E59" s="3">
-        <v>16900</v>
+        <v>32700</v>
       </c>
       <c r="F59" s="3">
-        <v>7400</v>
+        <v>16300</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43200</v>
+        <v>21300</v>
       </c>
       <c r="E60" s="3">
-        <v>29900</v>
+        <v>41800</v>
       </c>
       <c r="F60" s="3">
-        <v>14600</v>
+        <v>28900</v>
       </c>
       <c r="G60" s="3">
-        <v>1900</v>
+        <v>14100</v>
       </c>
       <c r="H60" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="I60" s="3">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2014,26 +2156,29 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
-        <v>22700</v>
-      </c>
       <c r="F62" s="3">
-        <v>27300</v>
+        <v>21900</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+        <v>26400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2041,9 +2186,12 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2276,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46300</v>
+        <v>23900</v>
       </c>
       <c r="E66" s="3">
-        <v>53600</v>
+        <v>44800</v>
       </c>
       <c r="F66" s="3">
-        <v>42200</v>
+        <v>51800</v>
       </c>
       <c r="G66" s="3">
-        <v>1900</v>
+        <v>40800</v>
       </c>
       <c r="H66" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="I66" s="3">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="J66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2440,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-85100</v>
+        <v>-95500</v>
       </c>
       <c r="E72" s="3">
-        <v>-63900</v>
+        <v>-82300</v>
       </c>
       <c r="F72" s="3">
-        <v>-37100</v>
+        <v>-61800</v>
       </c>
       <c r="G72" s="3">
-        <v>-24900</v>
+        <v>-35900</v>
       </c>
       <c r="H72" s="3">
-        <v>-33500</v>
+        <v>-24100</v>
       </c>
       <c r="I72" s="3">
-        <v>-30600</v>
+        <v>-32400</v>
       </c>
       <c r="J72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-25700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2560,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57400</v>
+        <v>92000</v>
       </c>
       <c r="E76" s="3">
-        <v>9500</v>
+        <v>55500</v>
       </c>
       <c r="F76" s="3">
-        <v>22900</v>
+        <v>9200</v>
       </c>
       <c r="G76" s="3">
-        <v>13100</v>
+        <v>22100</v>
       </c>
       <c r="H76" s="3">
-        <v>4400</v>
+        <v>12600</v>
       </c>
       <c r="I76" s="3">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="J76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42766</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42035</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20900</v>
+        <v>-10400</v>
       </c>
       <c r="E81" s="3">
-        <v>-17200</v>
+        <v>-20200</v>
       </c>
       <c r="F81" s="3">
-        <v>-19900</v>
+        <v>-16600</v>
       </c>
       <c r="G81" s="3">
-        <v>-32200</v>
+        <v>-19300</v>
       </c>
       <c r="H81" s="3">
-        <v>-5700</v>
+        <v>-31100</v>
       </c>
       <c r="I81" s="3">
-        <v>-7200</v>
+        <v>-5500</v>
       </c>
       <c r="J81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2702,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4100</v>
+        <v>6700</v>
       </c>
       <c r="E83" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>2900</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
       </c>
       <c r="H83" s="3">
+        <v>800</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2879,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9000</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H89" s="3">
-        <v>-2200</v>
+        <v>-9400</v>
       </c>
       <c r="I89" s="3">
-        <v>-5900</v>
+        <v>-2100</v>
       </c>
       <c r="J89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,25 +2926,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -2733,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3013,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4000</v>
+        <v>-33200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3300</v>
+        <v>-3900</v>
       </c>
       <c r="F94" s="3">
-        <v>-5300</v>
+        <v>-3200</v>
       </c>
       <c r="G94" s="3">
-        <v>3000</v>
+        <v>-5100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3177,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>32000</v>
+        <v>17200</v>
       </c>
       <c r="E100" s="3">
+        <v>30900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
-        <v>11900</v>
-      </c>
       <c r="G100" s="3">
-        <v>10200</v>
+        <v>11500</v>
       </c>
       <c r="H100" s="3">
-        <v>6000</v>
+        <v>9800</v>
       </c>
       <c r="I100" s="3">
-        <v>6700</v>
+        <v>5800</v>
       </c>
       <c r="J100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-400</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
         <v>-400</v>
       </c>
       <c r="F101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36600</v>
+        <v>-14000</v>
       </c>
       <c r="E102" s="3">
-        <v>-6900</v>
+        <v>35300</v>
       </c>
       <c r="F102" s="3">
-        <v>5200</v>
+        <v>-6700</v>
       </c>
       <c r="G102" s="3">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="H102" s="3">
         <v>3600</v>
       </c>
       <c r="I102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
@@ -716,25 +716,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>81100</v>
+        <v>79000</v>
       </c>
       <c r="E8" s="3">
-        <v>64500</v>
+        <v>62800</v>
       </c>
       <c r="F8" s="3">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="G8" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="I8" s="3">
         <v>1500</v>
       </c>
       <c r="J8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K8" s="3">
         <v>2700</v>
@@ -746,19 +746,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41700</v>
+        <v>40600</v>
       </c>
       <c r="E9" s="3">
-        <v>36500</v>
+        <v>35500</v>
       </c>
       <c r="F9" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="G9" s="3">
         <v>600</v>
       </c>
       <c r="H9" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -776,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>39400</v>
+        <v>38300</v>
       </c>
       <c r="E10" s="3">
-        <v>28100</v>
+        <v>27300</v>
       </c>
       <c r="F10" s="3">
-        <v>16700</v>
+        <v>16300</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
       </c>
       <c r="H10" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -838,7 +838,7 @@
         <v>800</v>
       </c>
       <c r="J12" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K12" s="3">
         <v>1700</v>
@@ -880,22 +880,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>15900</v>
+        <v>15500</v>
       </c>
       <c r="F14" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="G14" s="3">
-        <v>15300</v>
+        <v>14900</v>
       </c>
       <c r="H14" s="3">
-        <v>17600</v>
+        <v>17200</v>
       </c>
       <c r="I14" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="E15" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
@@ -951,25 +951,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>90100</v>
+        <v>87800</v>
       </c>
       <c r="E17" s="3">
-        <v>81100</v>
+        <v>79000</v>
       </c>
       <c r="F17" s="3">
-        <v>48200</v>
+        <v>46900</v>
       </c>
       <c r="G17" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="H17" s="3">
-        <v>45800</v>
+        <v>44600</v>
       </c>
       <c r="I17" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="J17" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="K17" s="3">
         <v>8500</v>
@@ -981,25 +981,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9000</v>
+        <v>-8800</v>
       </c>
       <c r="E18" s="3">
-        <v>-16500</v>
+        <v>-16100</v>
       </c>
       <c r="F18" s="3">
-        <v>-11200</v>
+        <v>-10900</v>
       </c>
       <c r="G18" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="H18" s="3">
-        <v>-30900</v>
+        <v>-30100</v>
       </c>
       <c r="I18" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="J18" s="3">
-        <v>-7100</v>
+        <v>-6900</v>
       </c>
       <c r="K18" s="3">
         <v>-5800</v>
@@ -1031,7 +1031,7 @@
         <v>-1400</v>
       </c>
       <c r="F20" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1055,25 +1055,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4900</v>
+        <v>-2200</v>
       </c>
       <c r="E21" s="3">
-        <v>-15000</v>
+        <v>-13600</v>
       </c>
       <c r="F21" s="3">
-        <v>-12800</v>
+        <v>-10400</v>
       </c>
       <c r="G21" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="H21" s="3">
-        <v>-30400</v>
+        <v>-29300</v>
       </c>
       <c r="I21" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="J21" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="K21" s="3">
         <v>-5400</v>
@@ -1115,25 +1115,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="E23" s="3">
-        <v>-18500</v>
+        <v>-18000</v>
       </c>
       <c r="F23" s="3">
-        <v>-13700</v>
+        <v>-13300</v>
       </c>
       <c r="G23" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="H23" s="3">
-        <v>-31200</v>
+        <v>-30400</v>
       </c>
       <c r="I23" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J23" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="K23" s="3">
         <v>-5900</v>
@@ -1148,10 +1148,10 @@
         <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1205,25 +1205,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10400</v>
+        <v>-10200</v>
       </c>
       <c r="E26" s="3">
-        <v>-20100</v>
+        <v>-19600</v>
       </c>
       <c r="F26" s="3">
-        <v>-14400</v>
+        <v>-14000</v>
       </c>
       <c r="G26" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="H26" s="3">
-        <v>-31200</v>
+        <v>-30400</v>
       </c>
       <c r="I26" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J26" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="K26" s="3">
         <v>-5900</v>
@@ -1235,25 +1235,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10400</v>
+        <v>-10200</v>
       </c>
       <c r="E27" s="3">
-        <v>-20100</v>
+        <v>-19600</v>
       </c>
       <c r="F27" s="3">
-        <v>-14400</v>
+        <v>-14000</v>
       </c>
       <c r="G27" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="H27" s="3">
-        <v>-31200</v>
+        <v>-30400</v>
       </c>
       <c r="I27" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J27" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="K27" s="3">
         <v>-5900</v>
@@ -1301,10 +1301,10 @@
         <v>-100</v>
       </c>
       <c r="F29" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="G29" s="3">
-        <v>-12600</v>
+        <v>-12300</v>
       </c>
       <c r="H29" s="3">
         <v>100</v>
@@ -1391,7 +1391,7 @@
         <v>1400</v>
       </c>
       <c r="F32" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10400</v>
+        <v>-10200</v>
       </c>
       <c r="E33" s="3">
-        <v>-20200</v>
+        <v>-19700</v>
       </c>
       <c r="F33" s="3">
-        <v>-16600</v>
+        <v>-16200</v>
       </c>
       <c r="G33" s="3">
-        <v>-19300</v>
+        <v>-18800</v>
       </c>
       <c r="H33" s="3">
-        <v>-31100</v>
+        <v>-30300</v>
       </c>
       <c r="I33" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J33" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="K33" s="3">
         <v>-5900</v>
@@ -1475,25 +1475,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10400</v>
+        <v>-10200</v>
       </c>
       <c r="E35" s="3">
-        <v>-20200</v>
+        <v>-19700</v>
       </c>
       <c r="F35" s="3">
-        <v>-16600</v>
+        <v>-16200</v>
       </c>
       <c r="G35" s="3">
-        <v>-19300</v>
+        <v>-18800</v>
       </c>
       <c r="H35" s="3">
-        <v>-31100</v>
+        <v>-30300</v>
       </c>
       <c r="I35" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J35" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="K35" s="3">
         <v>-5900</v>
@@ -1568,25 +1568,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22300</v>
+        <v>21700</v>
       </c>
       <c r="E41" s="3">
-        <v>36300</v>
+        <v>35300</v>
       </c>
       <c r="F41" s="3">
         <v>900</v>
       </c>
       <c r="G41" s="3">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="H41" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I41" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J41" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
@@ -1628,19 +1628,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="E43" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="F43" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="G43" s="3">
-        <v>14600</v>
+        <v>14200</v>
       </c>
       <c r="H43" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -1688,13 +1688,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
@@ -1718,22 +1718,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37500</v>
+        <v>36500</v>
       </c>
       <c r="E46" s="3">
-        <v>51200</v>
+        <v>49800</v>
       </c>
       <c r="F46" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="G46" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="H46" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I46" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="J46" s="3">
         <v>2100</v>
@@ -1778,10 +1778,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F48" s="3">
         <v>1400</v>
@@ -1808,19 +1808,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72000</v>
+        <v>70100</v>
       </c>
       <c r="E49" s="3">
-        <v>44100</v>
+        <v>43000</v>
       </c>
       <c r="F49" s="3">
-        <v>48000</v>
+        <v>46700</v>
       </c>
       <c r="G49" s="3">
-        <v>48900</v>
+        <v>47700</v>
       </c>
       <c r="H49" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -1898,19 +1898,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -1958,25 +1958,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115900</v>
+        <v>112900</v>
       </c>
       <c r="E54" s="3">
-        <v>100200</v>
+        <v>97600</v>
       </c>
       <c r="F54" s="3">
-        <v>61000</v>
+        <v>59400</v>
       </c>
       <c r="G54" s="3">
-        <v>62900</v>
+        <v>61300</v>
       </c>
       <c r="H54" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="I54" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J54" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="K54" s="3">
         <v>3700</v>
@@ -2019,22 +2019,22 @@
         <v>2000</v>
       </c>
       <c r="E57" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F57" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="G57" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="H57" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
@@ -2064,7 +2064,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K58" s="3">
         <v>2000</v>
@@ -2076,16 +2076,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19100</v>
+        <v>18600</v>
       </c>
       <c r="E59" s="3">
-        <v>32700</v>
+        <v>31800</v>
       </c>
       <c r="F59" s="3">
-        <v>16300</v>
+        <v>15900</v>
       </c>
       <c r="G59" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2106,16 +2106,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="E60" s="3">
-        <v>41800</v>
+        <v>40700</v>
       </c>
       <c r="F60" s="3">
-        <v>28900</v>
+        <v>28200</v>
       </c>
       <c r="G60" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="H60" s="3">
         <v>1800</v>
@@ -2124,7 +2124,7 @@
         <v>1000</v>
       </c>
       <c r="J60" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K60" s="3">
         <v>3200</v>
@@ -2166,16 +2166,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F62" s="3">
-        <v>21900</v>
+        <v>21400</v>
       </c>
       <c r="G62" s="3">
-        <v>26400</v>
+        <v>25700</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23900</v>
+        <v>23300</v>
       </c>
       <c r="E66" s="3">
-        <v>44800</v>
+        <v>43600</v>
       </c>
       <c r="F66" s="3">
-        <v>51800</v>
+        <v>50400</v>
       </c>
       <c r="G66" s="3">
-        <v>40800</v>
+        <v>39800</v>
       </c>
       <c r="H66" s="3">
         <v>1800</v>
@@ -2304,7 +2304,7 @@
         <v>1000</v>
       </c>
       <c r="J66" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
@@ -2450,25 +2450,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-95500</v>
+        <v>-93000</v>
       </c>
       <c r="E72" s="3">
-        <v>-82300</v>
+        <v>-80100</v>
       </c>
       <c r="F72" s="3">
-        <v>-61800</v>
+        <v>-60200</v>
       </c>
       <c r="G72" s="3">
-        <v>-35900</v>
+        <v>-34900</v>
       </c>
       <c r="H72" s="3">
-        <v>-24100</v>
+        <v>-23500</v>
       </c>
       <c r="I72" s="3">
-        <v>-32400</v>
+        <v>-31500</v>
       </c>
       <c r="J72" s="3">
-        <v>-29600</v>
+        <v>-28800</v>
       </c>
       <c r="K72" s="3">
         <v>-25700</v>
@@ -2570,22 +2570,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>92000</v>
+        <v>89600</v>
       </c>
       <c r="E76" s="3">
-        <v>55500</v>
+        <v>54000</v>
       </c>
       <c r="F76" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="G76" s="3">
-        <v>22100</v>
+        <v>21500</v>
       </c>
       <c r="H76" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="I76" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J76" s="3">
         <v>2000</v>
@@ -2665,25 +2665,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10400</v>
+        <v>-10200</v>
       </c>
       <c r="E81" s="3">
-        <v>-20200</v>
+        <v>-19700</v>
       </c>
       <c r="F81" s="3">
-        <v>-16600</v>
+        <v>-16200</v>
       </c>
       <c r="G81" s="3">
-        <v>-19300</v>
+        <v>-18800</v>
       </c>
       <c r="H81" s="3">
-        <v>-31100</v>
+        <v>-30300</v>
       </c>
       <c r="I81" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J81" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="K81" s="3">
         <v>-5900</v>
@@ -2709,16 +2709,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="E83" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F83" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
@@ -2892,22 +2892,22 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="F89" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
       </c>
       <c r="H89" s="3">
-        <v>-9400</v>
+        <v>-9200</v>
       </c>
       <c r="I89" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="J89" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="K89" s="3">
         <v>-1300</v>
@@ -3023,19 +3023,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33200</v>
+        <v>-32300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G94" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H94" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17200</v>
+        <v>16800</v>
       </c>
       <c r="E100" s="3">
-        <v>30900</v>
+        <v>30100</v>
       </c>
       <c r="F100" s="3">
         <v>-700</v>
       </c>
       <c r="G100" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="H100" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="I100" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="J100" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="K100" s="3">
         <v>1300</v>
@@ -3217,7 +3217,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3">
         <v>-400</v>
@@ -3247,25 +3247,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14000</v>
+        <v>-13700</v>
       </c>
       <c r="E102" s="3">
-        <v>35300</v>
+        <v>34400</v>
       </c>
       <c r="F102" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H102" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I102" s="3">
         <v>3400</v>
       </c>
       <c r="J102" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
@@ -716,25 +716,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79000</v>
+        <v>75200</v>
       </c>
       <c r="E8" s="3">
-        <v>62800</v>
+        <v>59800</v>
       </c>
       <c r="F8" s="3">
-        <v>36000</v>
+        <v>34300</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
       </c>
       <c r="H8" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="I8" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J8" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K8" s="3">
         <v>2700</v>
@@ -746,19 +746,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40600</v>
+        <v>38700</v>
       </c>
       <c r="E9" s="3">
-        <v>35500</v>
+        <v>33800</v>
       </c>
       <c r="F9" s="3">
-        <v>19700</v>
+        <v>18800</v>
       </c>
       <c r="G9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H9" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -776,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>38300</v>
+        <v>36500</v>
       </c>
       <c r="E10" s="3">
-        <v>27300</v>
+        <v>26000</v>
       </c>
       <c r="F10" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
       </c>
       <c r="H10" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -838,7 +838,7 @@
         <v>800</v>
       </c>
       <c r="J12" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K12" s="3">
         <v>1700</v>
@@ -880,19 +880,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="F14" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="G14" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="H14" s="3">
-        <v>17200</v>
+        <v>16300</v>
       </c>
       <c r="I14" s="3">
         <v>1600</v>
@@ -910,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E15" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -922,7 +922,7 @@
         <v>700</v>
       </c>
       <c r="H15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -951,25 +951,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87800</v>
+        <v>83600</v>
       </c>
       <c r="E17" s="3">
-        <v>79000</v>
+        <v>75200</v>
       </c>
       <c r="F17" s="3">
-        <v>46900</v>
+        <v>44700</v>
       </c>
       <c r="G17" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="H17" s="3">
-        <v>44600</v>
+        <v>42400</v>
       </c>
       <c r="I17" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="J17" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="K17" s="3">
         <v>8500</v>
@@ -981,25 +981,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="E18" s="3">
-        <v>-16100</v>
+        <v>-15300</v>
       </c>
       <c r="F18" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="G18" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="H18" s="3">
-        <v>-30100</v>
+        <v>-28600</v>
       </c>
       <c r="I18" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="J18" s="3">
-        <v>-6900</v>
+        <v>-6500</v>
       </c>
       <c r="K18" s="3">
         <v>-5800</v>
@@ -1028,10 +1028,10 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1055,25 +1055,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E21" s="3">
-        <v>-13600</v>
+        <v>-13000</v>
       </c>
       <c r="F21" s="3">
-        <v>-10400</v>
+        <v>-9900</v>
       </c>
       <c r="G21" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="H21" s="3">
-        <v>-29300</v>
+        <v>-27900</v>
       </c>
       <c r="I21" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="J21" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="K21" s="3">
         <v>-5400</v>
@@ -1115,25 +1115,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9100</v>
+        <v>-8600</v>
       </c>
       <c r="E23" s="3">
-        <v>-18000</v>
+        <v>-17100</v>
       </c>
       <c r="F23" s="3">
-        <v>-13300</v>
+        <v>-12700</v>
       </c>
       <c r="G23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-30400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-6700</v>
       </c>
       <c r="K23" s="3">
         <v>-5900</v>
@@ -1148,7 +1148,7 @@
         <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
@@ -1205,25 +1205,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="E26" s="3">
-        <v>-19600</v>
+        <v>-18700</v>
       </c>
       <c r="F26" s="3">
-        <v>-14000</v>
+        <v>-13400</v>
       </c>
       <c r="G26" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="H26" s="3">
-        <v>-30400</v>
+        <v>-29000</v>
       </c>
       <c r="I26" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="J26" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="K26" s="3">
         <v>-5900</v>
@@ -1235,25 +1235,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="E27" s="3">
-        <v>-19600</v>
+        <v>-18700</v>
       </c>
       <c r="F27" s="3">
-        <v>-14000</v>
+        <v>-13400</v>
       </c>
       <c r="G27" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="H27" s="3">
-        <v>-30400</v>
+        <v>-29000</v>
       </c>
       <c r="I27" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="J27" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="K27" s="3">
         <v>-5900</v>
@@ -1301,10 +1301,10 @@
         <v>-100</v>
       </c>
       <c r="F29" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G29" s="3">
-        <v>-12300</v>
+        <v>-11700</v>
       </c>
       <c r="H29" s="3">
         <v>100</v>
@@ -1388,10 +1388,10 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="E33" s="3">
-        <v>-19700</v>
+        <v>-18800</v>
       </c>
       <c r="F33" s="3">
-        <v>-16200</v>
+        <v>-15400</v>
       </c>
       <c r="G33" s="3">
-        <v>-18800</v>
+        <v>-17900</v>
       </c>
       <c r="H33" s="3">
-        <v>-30300</v>
+        <v>-28800</v>
       </c>
       <c r="I33" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="J33" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="K33" s="3">
         <v>-5900</v>
@@ -1475,25 +1475,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="E35" s="3">
-        <v>-19700</v>
+        <v>-18800</v>
       </c>
       <c r="F35" s="3">
-        <v>-16200</v>
+        <v>-15400</v>
       </c>
       <c r="G35" s="3">
-        <v>-18800</v>
+        <v>-17900</v>
       </c>
       <c r="H35" s="3">
-        <v>-30300</v>
+        <v>-28800</v>
       </c>
       <c r="I35" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="J35" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="K35" s="3">
         <v>-5900</v>
@@ -1568,22 +1568,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21700</v>
+        <v>20600</v>
       </c>
       <c r="E41" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="F41" s="3">
         <v>900</v>
       </c>
       <c r="G41" s="3">
-        <v>19000</v>
+        <v>18100</v>
       </c>
       <c r="H41" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="I41" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J41" s="3">
         <v>1200</v>
@@ -1628,19 +1628,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="E43" s="3">
-        <v>14100</v>
+        <v>13500</v>
       </c>
       <c r="F43" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="G43" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="H43" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -1688,16 +1688,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>900</v>
@@ -1718,25 +1718,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36500</v>
+        <v>34700</v>
       </c>
       <c r="E46" s="3">
-        <v>49800</v>
+        <v>47400</v>
       </c>
       <c r="F46" s="3">
-        <v>11300</v>
+        <v>10700</v>
       </c>
       <c r="G46" s="3">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="H46" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="I46" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="J46" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K46" s="3">
         <v>900</v>
@@ -1784,10 +1784,10 @@
         <v>1300</v>
       </c>
       <c r="F48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -1808,25 +1808,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70100</v>
+        <v>66800</v>
       </c>
       <c r="E49" s="3">
-        <v>43000</v>
+        <v>40900</v>
       </c>
       <c r="F49" s="3">
-        <v>46700</v>
+        <v>44500</v>
       </c>
       <c r="G49" s="3">
-        <v>47700</v>
+        <v>45400</v>
       </c>
       <c r="H49" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K49" s="3">
         <v>2800</v>
@@ -1898,13 +1898,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E52" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -1958,25 +1958,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112900</v>
+        <v>107500</v>
       </c>
       <c r="E54" s="3">
-        <v>97600</v>
+        <v>92900</v>
       </c>
       <c r="F54" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="G54" s="3">
-        <v>61300</v>
+        <v>58400</v>
       </c>
       <c r="H54" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="I54" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="J54" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K54" s="3">
         <v>3700</v>
@@ -2016,19 +2016,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="F57" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="G57" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="H57" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -2052,7 +2052,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>1600</v>
@@ -2076,16 +2076,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="E59" s="3">
-        <v>31800</v>
+        <v>30300</v>
       </c>
       <c r="F59" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="G59" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2106,25 +2106,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="E60" s="3">
-        <v>40700</v>
+        <v>38700</v>
       </c>
       <c r="F60" s="3">
-        <v>28200</v>
+        <v>26800</v>
       </c>
       <c r="G60" s="3">
-        <v>13700</v>
+        <v>13000</v>
       </c>
       <c r="H60" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J60" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K60" s="3">
         <v>3200</v>
@@ -2166,16 +2166,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F62" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="G62" s="3">
-        <v>25700</v>
+        <v>24500</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="E66" s="3">
-        <v>43600</v>
+        <v>41500</v>
       </c>
       <c r="F66" s="3">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="G66" s="3">
-        <v>39800</v>
+        <v>37900</v>
       </c>
       <c r="H66" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J66" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
@@ -2450,25 +2450,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-93000</v>
+        <v>-88600</v>
       </c>
       <c r="E72" s="3">
-        <v>-80100</v>
+        <v>-76300</v>
       </c>
       <c r="F72" s="3">
-        <v>-60200</v>
+        <v>-57300</v>
       </c>
       <c r="G72" s="3">
-        <v>-34900</v>
+        <v>-33300</v>
       </c>
       <c r="H72" s="3">
-        <v>-23500</v>
+        <v>-22400</v>
       </c>
       <c r="I72" s="3">
-        <v>-31500</v>
+        <v>-30000</v>
       </c>
       <c r="J72" s="3">
-        <v>-28800</v>
+        <v>-27400</v>
       </c>
       <c r="K72" s="3">
         <v>-25700</v>
@@ -2570,25 +2570,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>89600</v>
+        <v>85300</v>
       </c>
       <c r="E76" s="3">
-        <v>54000</v>
+        <v>51400</v>
       </c>
       <c r="F76" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="G76" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="H76" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="I76" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J76" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
@@ -2665,25 +2665,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10200</v>
+        <v>-9700</v>
       </c>
       <c r="E81" s="3">
-        <v>-19700</v>
+        <v>-18800</v>
       </c>
       <c r="F81" s="3">
-        <v>-16200</v>
+        <v>-15400</v>
       </c>
       <c r="G81" s="3">
-        <v>-18800</v>
+        <v>-17900</v>
       </c>
       <c r="H81" s="3">
-        <v>-30300</v>
+        <v>-28800</v>
       </c>
       <c r="I81" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="J81" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="K81" s="3">
         <v>-5900</v>
@@ -2709,19 +2709,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E83" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F83" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
       </c>
       <c r="H83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -2892,22 +2892,22 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F89" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H89" s="3">
-        <v>-9200</v>
+        <v>-8800</v>
       </c>
       <c r="I89" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J89" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="K89" s="3">
         <v>-1300</v>
@@ -3023,19 +3023,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32300</v>
+        <v>-30800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="H94" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="E100" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="F100" s="3">
         <v>-700</v>
       </c>
       <c r="G100" s="3">
-        <v>11200</v>
+        <v>10700</v>
       </c>
       <c r="H100" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="I100" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="J100" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="K100" s="3">
         <v>1300</v>
@@ -3217,7 +3217,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E101" s="3">
         <v>-400</v>
@@ -3226,7 +3226,7 @@
         <v>-400</v>
       </c>
       <c r="G101" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
@@ -3247,22 +3247,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13700</v>
+        <v>-13000</v>
       </c>
       <c r="E102" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="F102" s="3">
-        <v>-6500</v>
+        <v>-6200</v>
       </c>
       <c r="G102" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H102" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I102" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
@@ -716,25 +716,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75200</v>
+        <v>79300</v>
       </c>
       <c r="E8" s="3">
-        <v>59800</v>
+        <v>63100</v>
       </c>
       <c r="F8" s="3">
-        <v>34300</v>
+        <v>36200</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
       </c>
       <c r="H8" s="3">
-        <v>13800</v>
+        <v>14600</v>
       </c>
       <c r="I8" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K8" s="3">
         <v>2700</v>
@@ -746,19 +746,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38700</v>
+        <v>40800</v>
       </c>
       <c r="E9" s="3">
-        <v>33800</v>
+        <v>35700</v>
       </c>
       <c r="F9" s="3">
-        <v>18800</v>
+        <v>19800</v>
       </c>
       <c r="G9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H9" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -776,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>36500</v>
+        <v>38500</v>
       </c>
       <c r="E10" s="3">
-        <v>26000</v>
+        <v>27400</v>
       </c>
       <c r="F10" s="3">
-        <v>15500</v>
+        <v>16400</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
       </c>
       <c r="H10" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -838,7 +838,7 @@
         <v>800</v>
       </c>
       <c r="J12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K12" s="3">
         <v>1700</v>
@@ -880,19 +880,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>14800</v>
+        <v>15600</v>
       </c>
       <c r="F14" s="3">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="G14" s="3">
-        <v>14200</v>
+        <v>15000</v>
       </c>
       <c r="H14" s="3">
-        <v>16300</v>
+        <v>17200</v>
       </c>
       <c r="I14" s="3">
         <v>1600</v>
@@ -910,19 +910,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="E15" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -951,25 +951,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>83600</v>
+        <v>88100</v>
       </c>
       <c r="E17" s="3">
-        <v>75200</v>
+        <v>79300</v>
       </c>
       <c r="F17" s="3">
-        <v>44700</v>
+        <v>47100</v>
       </c>
       <c r="G17" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="H17" s="3">
-        <v>42400</v>
+        <v>44800</v>
       </c>
       <c r="I17" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="J17" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="K17" s="3">
         <v>8500</v>
@@ -981,25 +981,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8400</v>
+        <v>-8800</v>
       </c>
       <c r="E18" s="3">
-        <v>-15300</v>
+        <v>-16200</v>
       </c>
       <c r="F18" s="3">
-        <v>-10400</v>
+        <v>-11000</v>
       </c>
       <c r="G18" s="3">
-        <v>-6100</v>
+        <v>-6500</v>
       </c>
       <c r="H18" s="3">
-        <v>-28600</v>
+        <v>-30200</v>
       </c>
       <c r="I18" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="J18" s="3">
-        <v>-6500</v>
+        <v>-6900</v>
       </c>
       <c r="K18" s="3">
         <v>-5800</v>
@@ -1028,10 +1028,10 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1055,25 +1055,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="E21" s="3">
-        <v>-13000</v>
+        <v>-13700</v>
       </c>
       <c r="F21" s="3">
-        <v>-9900</v>
+        <v>-10500</v>
       </c>
       <c r="G21" s="3">
-        <v>-5400</v>
+        <v>-5700</v>
       </c>
       <c r="H21" s="3">
-        <v>-27900</v>
+        <v>-29400</v>
       </c>
       <c r="I21" s="3">
-        <v>-4600</v>
+        <v>-4900</v>
       </c>
       <c r="J21" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="K21" s="3">
         <v>-5400</v>
@@ -1115,25 +1115,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8600</v>
+        <v>-9100</v>
       </c>
       <c r="E23" s="3">
-        <v>-17100</v>
+        <v>-18100</v>
       </c>
       <c r="F23" s="3">
-        <v>-12700</v>
+        <v>-13400</v>
       </c>
       <c r="G23" s="3">
-        <v>-6100</v>
+        <v>-6500</v>
       </c>
       <c r="H23" s="3">
-        <v>-29000</v>
+        <v>-30500</v>
       </c>
       <c r="I23" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="J23" s="3">
-        <v>-6400</v>
+        <v>-6800</v>
       </c>
       <c r="K23" s="3">
         <v>-5900</v>
@@ -1148,7 +1148,7 @@
         <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
@@ -1205,25 +1205,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9700</v>
+        <v>-10200</v>
       </c>
       <c r="E26" s="3">
-        <v>-18700</v>
+        <v>-19700</v>
       </c>
       <c r="F26" s="3">
-        <v>-13400</v>
+        <v>-14100</v>
       </c>
       <c r="G26" s="3">
-        <v>-6100</v>
+        <v>-6500</v>
       </c>
       <c r="H26" s="3">
-        <v>-29000</v>
+        <v>-30500</v>
       </c>
       <c r="I26" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="J26" s="3">
-        <v>-6400</v>
+        <v>-6800</v>
       </c>
       <c r="K26" s="3">
         <v>-5900</v>
@@ -1235,25 +1235,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9700</v>
+        <v>-10200</v>
       </c>
       <c r="E27" s="3">
-        <v>-18700</v>
+        <v>-19700</v>
       </c>
       <c r="F27" s="3">
-        <v>-13400</v>
+        <v>-14100</v>
       </c>
       <c r="G27" s="3">
-        <v>-6100</v>
+        <v>-6500</v>
       </c>
       <c r="H27" s="3">
-        <v>-29000</v>
+        <v>-30500</v>
       </c>
       <c r="I27" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="J27" s="3">
-        <v>-6400</v>
+        <v>-6800</v>
       </c>
       <c r="K27" s="3">
         <v>-5900</v>
@@ -1301,10 +1301,10 @@
         <v>-100</v>
       </c>
       <c r="F29" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G29" s="3">
-        <v>-11700</v>
+        <v>-12400</v>
       </c>
       <c r="H29" s="3">
         <v>100</v>
@@ -1388,10 +1388,10 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9700</v>
+        <v>-10200</v>
       </c>
       <c r="E33" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-18800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-17900</v>
-      </c>
       <c r="H33" s="3">
-        <v>-28800</v>
+        <v>-30400</v>
       </c>
       <c r="I33" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="J33" s="3">
-        <v>-6400</v>
+        <v>-6800</v>
       </c>
       <c r="K33" s="3">
         <v>-5900</v>
@@ -1475,25 +1475,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9700</v>
+        <v>-10200</v>
       </c>
       <c r="E35" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-18800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-17900</v>
-      </c>
       <c r="H35" s="3">
-        <v>-28800</v>
+        <v>-30400</v>
       </c>
       <c r="I35" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="J35" s="3">
-        <v>-6400</v>
+        <v>-6800</v>
       </c>
       <c r="K35" s="3">
         <v>-5900</v>
@@ -1568,25 +1568,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20600</v>
+        <v>21800</v>
       </c>
       <c r="E41" s="3">
-        <v>33600</v>
+        <v>35500</v>
       </c>
       <c r="F41" s="3">
         <v>900</v>
       </c>
       <c r="G41" s="3">
-        <v>18100</v>
+        <v>19100</v>
       </c>
       <c r="H41" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="I41" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J41" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
@@ -1628,19 +1628,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11000</v>
+        <v>11600</v>
       </c>
       <c r="E43" s="3">
-        <v>13500</v>
+        <v>14200</v>
       </c>
       <c r="F43" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="G43" s="3">
-        <v>13600</v>
+        <v>14300</v>
       </c>
       <c r="H43" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -1688,16 +1688,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G45" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H45" s="3">
         <v>900</v>
@@ -1718,25 +1718,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>34700</v>
+        <v>36600</v>
       </c>
       <c r="E46" s="3">
-        <v>47400</v>
+        <v>50000</v>
       </c>
       <c r="F46" s="3">
-        <v>10700</v>
+        <v>11300</v>
       </c>
       <c r="G46" s="3">
-        <v>12600</v>
+        <v>13300</v>
       </c>
       <c r="H46" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="I46" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="J46" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K46" s="3">
         <v>900</v>
@@ -1784,10 +1784,10 @@
         <v>1300</v>
       </c>
       <c r="F48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -1808,25 +1808,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>66800</v>
+        <v>70400</v>
       </c>
       <c r="E49" s="3">
-        <v>40900</v>
+        <v>43200</v>
       </c>
       <c r="F49" s="3">
-        <v>44500</v>
+        <v>46900</v>
       </c>
       <c r="G49" s="3">
-        <v>45400</v>
+        <v>47900</v>
       </c>
       <c r="H49" s="3">
-        <v>8900</v>
+        <v>9400</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K49" s="3">
         <v>2800</v>
@@ -1898,13 +1898,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -1958,25 +1958,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107500</v>
+        <v>113400</v>
       </c>
       <c r="E54" s="3">
-        <v>92900</v>
+        <v>98000</v>
       </c>
       <c r="F54" s="3">
-        <v>56600</v>
+        <v>59700</v>
       </c>
       <c r="G54" s="3">
-        <v>58400</v>
+        <v>61500</v>
       </c>
       <c r="H54" s="3">
-        <v>13400</v>
+        <v>14100</v>
       </c>
       <c r="I54" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="J54" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="K54" s="3">
         <v>3700</v>
@@ -2016,19 +2016,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="F57" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="G57" s="3">
-        <v>10300</v>
+        <v>10900</v>
       </c>
       <c r="H57" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -2052,7 +2052,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>1600</v>
@@ -2076,16 +2076,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17700</v>
+        <v>18600</v>
       </c>
       <c r="E59" s="3">
-        <v>30300</v>
+        <v>32000</v>
       </c>
       <c r="F59" s="3">
-        <v>15200</v>
+        <v>16000</v>
       </c>
       <c r="G59" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2106,25 +2106,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19700</v>
+        <v>20800</v>
       </c>
       <c r="E60" s="3">
-        <v>38700</v>
+        <v>40800</v>
       </c>
       <c r="F60" s="3">
-        <v>26800</v>
+        <v>28300</v>
       </c>
       <c r="G60" s="3">
-        <v>13000</v>
+        <v>13800</v>
       </c>
       <c r="H60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J60" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K60" s="3">
         <v>3200</v>
@@ -2166,16 +2166,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F62" s="3">
-        <v>20400</v>
+        <v>21500</v>
       </c>
       <c r="G62" s="3">
-        <v>24500</v>
+        <v>25800</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22200</v>
+        <v>23400</v>
       </c>
       <c r="E66" s="3">
-        <v>41500</v>
+        <v>43800</v>
       </c>
       <c r="F66" s="3">
-        <v>48000</v>
+        <v>50700</v>
       </c>
       <c r="G66" s="3">
-        <v>37900</v>
+        <v>39900</v>
       </c>
       <c r="H66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J66" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
@@ -2450,25 +2450,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-88600</v>
+        <v>-93400</v>
       </c>
       <c r="E72" s="3">
-        <v>-76300</v>
+        <v>-80500</v>
       </c>
       <c r="F72" s="3">
-        <v>-57300</v>
+        <v>-60400</v>
       </c>
       <c r="G72" s="3">
-        <v>-33300</v>
+        <v>-35100</v>
       </c>
       <c r="H72" s="3">
-        <v>-22400</v>
+        <v>-23600</v>
       </c>
       <c r="I72" s="3">
-        <v>-30000</v>
+        <v>-31600</v>
       </c>
       <c r="J72" s="3">
-        <v>-27400</v>
+        <v>-28900</v>
       </c>
       <c r="K72" s="3">
         <v>-25700</v>
@@ -2570,25 +2570,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>85300</v>
+        <v>90000</v>
       </c>
       <c r="E76" s="3">
-        <v>51400</v>
+        <v>54200</v>
       </c>
       <c r="F76" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="G76" s="3">
-        <v>20500</v>
+        <v>21600</v>
       </c>
       <c r="H76" s="3">
-        <v>11700</v>
+        <v>12400</v>
       </c>
       <c r="I76" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="J76" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
@@ -2665,25 +2665,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9700</v>
+        <v>-10200</v>
       </c>
       <c r="E81" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-18800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-17900</v>
-      </c>
       <c r="H81" s="3">
-        <v>-28800</v>
+        <v>-30400</v>
       </c>
       <c r="I81" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="J81" s="3">
-        <v>-6400</v>
+        <v>-6800</v>
       </c>
       <c r="K81" s="3">
         <v>-5900</v>
@@ -2709,19 +2709,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="E83" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="F83" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
       </c>
       <c r="H83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -2892,22 +2892,22 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="F89" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H89" s="3">
-        <v>-8800</v>
+        <v>-9200</v>
       </c>
       <c r="I89" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J89" s="3">
-        <v>-5300</v>
+        <v>-5600</v>
       </c>
       <c r="K89" s="3">
         <v>-1300</v>
@@ -3023,19 +3023,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30800</v>
+        <v>-32500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="H94" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16000</v>
+        <v>16900</v>
       </c>
       <c r="E100" s="3">
-        <v>28700</v>
+        <v>30300</v>
       </c>
       <c r="F100" s="3">
         <v>-700</v>
       </c>
       <c r="G100" s="3">
-        <v>10700</v>
+        <v>11300</v>
       </c>
       <c r="H100" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="I100" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="J100" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="K100" s="3">
         <v>1300</v>
@@ -3217,7 +3217,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3">
         <v>-400</v>
@@ -3226,7 +3226,7 @@
         <v>-400</v>
       </c>
       <c r="G101" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
@@ -3247,22 +3247,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13000</v>
+        <v>-13700</v>
       </c>
       <c r="E102" s="3">
-        <v>32800</v>
+        <v>34600</v>
       </c>
       <c r="F102" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I102" s="3">
         <v>3400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>3200</v>
       </c>
       <c r="J102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
@@ -716,25 +716,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79300</v>
+        <v>85300</v>
       </c>
       <c r="E8" s="3">
-        <v>63100</v>
+        <v>67900</v>
       </c>
       <c r="F8" s="3">
-        <v>36200</v>
+        <v>38900</v>
       </c>
       <c r="G8" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H8" s="3">
-        <v>14600</v>
+        <v>15700</v>
       </c>
       <c r="I8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J8" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K8" s="3">
         <v>2700</v>
@@ -746,19 +746,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40800</v>
+        <v>43900</v>
       </c>
       <c r="E9" s="3">
-        <v>35700</v>
+        <v>38400</v>
       </c>
       <c r="F9" s="3">
-        <v>19800</v>
+        <v>21300</v>
       </c>
       <c r="G9" s="3">
         <v>600</v>
       </c>
       <c r="H9" s="3">
-        <v>7800</v>
+        <v>8400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
@@ -776,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>38500</v>
+        <v>41400</v>
       </c>
       <c r="E10" s="3">
-        <v>27400</v>
+        <v>29500</v>
       </c>
       <c r="F10" s="3">
-        <v>16400</v>
+        <v>17600</v>
       </c>
       <c r="G10" s="3">
         <v>500</v>
       </c>
       <c r="H10" s="3">
-        <v>6800</v>
+        <v>7300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
@@ -835,10 +835,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J12" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K12" s="3">
         <v>1700</v>
@@ -880,22 +880,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>16100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I14" s="3">
         <v>1800</v>
-      </c>
-      <c r="E14" s="3">
-        <v>15600</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G14" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>17200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1600</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="E15" s="3">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -928,7 +928,7 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>500</v>
@@ -951,25 +951,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>88100</v>
+        <v>94800</v>
       </c>
       <c r="E17" s="3">
-        <v>79300</v>
+        <v>85300</v>
       </c>
       <c r="F17" s="3">
-        <v>47100</v>
+        <v>50700</v>
       </c>
       <c r="G17" s="3">
-        <v>7500</v>
+        <v>8100</v>
       </c>
       <c r="H17" s="3">
-        <v>44800</v>
+        <v>48200</v>
       </c>
       <c r="I17" s="3">
-        <v>6800</v>
+        <v>7400</v>
       </c>
       <c r="J17" s="3">
-        <v>8700</v>
+        <v>9400</v>
       </c>
       <c r="K17" s="3">
         <v>8500</v>
@@ -981,25 +981,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8800</v>
+        <v>-9500</v>
       </c>
       <c r="E18" s="3">
-        <v>-16200</v>
+        <v>-17400</v>
       </c>
       <c r="F18" s="3">
-        <v>-11000</v>
+        <v>-11800</v>
       </c>
       <c r="G18" s="3">
-        <v>-6500</v>
+        <v>-7000</v>
       </c>
       <c r="H18" s="3">
-        <v>-30200</v>
+        <v>-32500</v>
       </c>
       <c r="I18" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="J18" s="3">
-        <v>-6900</v>
+        <v>-7400</v>
       </c>
       <c r="K18" s="3">
         <v>-5800</v>
@@ -1028,10 +1028,10 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1055,25 +1055,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="E21" s="3">
-        <v>-13700</v>
+        <v>-14700</v>
       </c>
       <c r="F21" s="3">
-        <v>-10500</v>
+        <v>-11300</v>
       </c>
       <c r="G21" s="3">
-        <v>-5700</v>
+        <v>-6200</v>
       </c>
       <c r="H21" s="3">
-        <v>-29400</v>
+        <v>-31700</v>
       </c>
       <c r="I21" s="3">
-        <v>-4900</v>
+        <v>-5200</v>
       </c>
       <c r="J21" s="3">
-        <v>-6200</v>
+        <v>-6700</v>
       </c>
       <c r="K21" s="3">
         <v>-5400</v>
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1115,25 +1115,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9100</v>
+        <v>-9800</v>
       </c>
       <c r="E23" s="3">
-        <v>-18100</v>
+        <v>-19400</v>
       </c>
       <c r="F23" s="3">
-        <v>-13400</v>
+        <v>-14400</v>
       </c>
       <c r="G23" s="3">
-        <v>-6500</v>
+        <v>-7000</v>
       </c>
       <c r="H23" s="3">
-        <v>-30500</v>
+        <v>-32900</v>
       </c>
       <c r="I23" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="J23" s="3">
-        <v>-6800</v>
+        <v>-7300</v>
       </c>
       <c r="K23" s="3">
         <v>-5900</v>
@@ -1145,13 +1145,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1205,25 +1205,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10200</v>
+        <v>-11000</v>
       </c>
       <c r="E26" s="3">
-        <v>-19700</v>
+        <v>-21200</v>
       </c>
       <c r="F26" s="3">
-        <v>-14100</v>
+        <v>-15200</v>
       </c>
       <c r="G26" s="3">
-        <v>-6500</v>
+        <v>-7000</v>
       </c>
       <c r="H26" s="3">
-        <v>-30500</v>
+        <v>-32900</v>
       </c>
       <c r="I26" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="J26" s="3">
-        <v>-6800</v>
+        <v>-7300</v>
       </c>
       <c r="K26" s="3">
         <v>-5900</v>
@@ -1235,25 +1235,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10200</v>
+        <v>-11000</v>
       </c>
       <c r="E27" s="3">
-        <v>-19700</v>
+        <v>-21200</v>
       </c>
       <c r="F27" s="3">
-        <v>-14100</v>
+        <v>-15200</v>
       </c>
       <c r="G27" s="3">
-        <v>-6500</v>
+        <v>-7000</v>
       </c>
       <c r="H27" s="3">
-        <v>-30500</v>
+        <v>-32900</v>
       </c>
       <c r="I27" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="J27" s="3">
-        <v>-6800</v>
+        <v>-7300</v>
       </c>
       <c r="K27" s="3">
         <v>-5900</v>
@@ -1301,10 +1301,10 @@
         <v>-100</v>
       </c>
       <c r="F29" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="G29" s="3">
-        <v>-12400</v>
+        <v>-13300</v>
       </c>
       <c r="H29" s="3">
         <v>100</v>
@@ -1388,10 +1388,10 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10200</v>
+        <v>-11000</v>
       </c>
       <c r="E33" s="3">
-        <v>-19800</v>
+        <v>-21300</v>
       </c>
       <c r="F33" s="3">
-        <v>-16200</v>
+        <v>-17500</v>
       </c>
       <c r="G33" s="3">
-        <v>-18800</v>
+        <v>-20300</v>
       </c>
       <c r="H33" s="3">
-        <v>-30400</v>
+        <v>-32700</v>
       </c>
       <c r="I33" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="J33" s="3">
-        <v>-6800</v>
+        <v>-7300</v>
       </c>
       <c r="K33" s="3">
         <v>-5900</v>
@@ -1475,25 +1475,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10200</v>
+        <v>-11000</v>
       </c>
       <c r="E35" s="3">
-        <v>-19800</v>
+        <v>-21300</v>
       </c>
       <c r="F35" s="3">
-        <v>-16200</v>
+        <v>-17500</v>
       </c>
       <c r="G35" s="3">
-        <v>-18800</v>
+        <v>-20300</v>
       </c>
       <c r="H35" s="3">
-        <v>-30400</v>
+        <v>-32700</v>
       </c>
       <c r="I35" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="J35" s="3">
-        <v>-6800</v>
+        <v>-7300</v>
       </c>
       <c r="K35" s="3">
         <v>-5900</v>
@@ -1568,22 +1568,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21800</v>
+        <v>23400</v>
       </c>
       <c r="E41" s="3">
-        <v>35500</v>
+        <v>38200</v>
       </c>
       <c r="F41" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="3">
-        <v>19100</v>
+        <v>20600</v>
       </c>
       <c r="H41" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="I41" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="J41" s="3">
         <v>1300</v>
@@ -1628,19 +1628,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11600</v>
+        <v>12400</v>
       </c>
       <c r="E43" s="3">
-        <v>14200</v>
+        <v>15300</v>
       </c>
       <c r="F43" s="3">
-        <v>8400</v>
+        <v>9000</v>
       </c>
       <c r="G43" s="3">
-        <v>14300</v>
+        <v>15400</v>
       </c>
       <c r="H43" s="3">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -1688,25 +1688,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
       </c>
       <c r="H45" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36600</v>
+        <v>39400</v>
       </c>
       <c r="E46" s="3">
-        <v>50000</v>
+        <v>53800</v>
       </c>
       <c r="F46" s="3">
-        <v>11300</v>
+        <v>12200</v>
       </c>
       <c r="G46" s="3">
-        <v>13300</v>
+        <v>14300</v>
       </c>
       <c r="H46" s="3">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="I46" s="3">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="J46" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K46" s="3">
         <v>900</v>
@@ -1778,13 +1778,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -1808,25 +1808,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70400</v>
+        <v>75800</v>
       </c>
       <c r="E49" s="3">
-        <v>43200</v>
+        <v>46400</v>
       </c>
       <c r="F49" s="3">
-        <v>46900</v>
+        <v>50500</v>
       </c>
       <c r="G49" s="3">
-        <v>47900</v>
+        <v>51500</v>
       </c>
       <c r="H49" s="3">
-        <v>9400</v>
+        <v>10100</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K49" s="3">
         <v>2800</v>
@@ -1898,19 +1898,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="E52" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -1958,25 +1958,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113400</v>
+        <v>122000</v>
       </c>
       <c r="E54" s="3">
-        <v>98000</v>
+        <v>105500</v>
       </c>
       <c r="F54" s="3">
-        <v>59700</v>
+        <v>64200</v>
       </c>
       <c r="G54" s="3">
-        <v>61500</v>
+        <v>66200</v>
       </c>
       <c r="H54" s="3">
-        <v>14100</v>
+        <v>15200</v>
       </c>
       <c r="I54" s="3">
-        <v>5100</v>
+        <v>5500</v>
       </c>
       <c r="J54" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="K54" s="3">
         <v>3700</v>
@@ -2016,25 +2016,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E57" s="3">
-        <v>8700</v>
+        <v>9400</v>
       </c>
       <c r="F57" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="G57" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="H57" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
@@ -2055,7 +2055,7 @@
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K58" s="3">
         <v>2000</v>
@@ -2076,16 +2076,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18600</v>
+        <v>20000</v>
       </c>
       <c r="E59" s="3">
-        <v>32000</v>
+        <v>34400</v>
       </c>
       <c r="F59" s="3">
-        <v>16000</v>
+        <v>17200</v>
       </c>
       <c r="G59" s="3">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2106,25 +2106,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20800</v>
+        <v>22400</v>
       </c>
       <c r="E60" s="3">
-        <v>40800</v>
+        <v>43900</v>
       </c>
       <c r="F60" s="3">
-        <v>28300</v>
+        <v>30400</v>
       </c>
       <c r="G60" s="3">
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="H60" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J60" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K60" s="3">
         <v>3200</v>
@@ -2136,13 +2136,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
@@ -2166,16 +2166,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="F62" s="3">
-        <v>21500</v>
+        <v>23100</v>
       </c>
       <c r="G62" s="3">
-        <v>25800</v>
+        <v>27800</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23400</v>
+        <v>25200</v>
       </c>
       <c r="E66" s="3">
-        <v>43800</v>
+        <v>47100</v>
       </c>
       <c r="F66" s="3">
-        <v>50700</v>
+        <v>54500</v>
       </c>
       <c r="G66" s="3">
-        <v>39900</v>
+        <v>43000</v>
       </c>
       <c r="H66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J66" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
@@ -2450,25 +2450,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-93400</v>
+        <v>-100500</v>
       </c>
       <c r="E72" s="3">
-        <v>-80500</v>
+        <v>-86600</v>
       </c>
       <c r="F72" s="3">
-        <v>-60400</v>
+        <v>-65000</v>
       </c>
       <c r="G72" s="3">
-        <v>-35100</v>
+        <v>-37700</v>
       </c>
       <c r="H72" s="3">
-        <v>-23600</v>
+        <v>-25400</v>
       </c>
       <c r="I72" s="3">
-        <v>-31600</v>
+        <v>-34000</v>
       </c>
       <c r="J72" s="3">
-        <v>-28900</v>
+        <v>-31100</v>
       </c>
       <c r="K72" s="3">
         <v>-25700</v>
@@ -2570,25 +2570,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>90000</v>
+        <v>96800</v>
       </c>
       <c r="E76" s="3">
-        <v>54200</v>
+        <v>58400</v>
       </c>
       <c r="F76" s="3">
-        <v>9000</v>
+        <v>9700</v>
       </c>
       <c r="G76" s="3">
-        <v>21600</v>
+        <v>23300</v>
       </c>
       <c r="H76" s="3">
-        <v>12400</v>
+        <v>13300</v>
       </c>
       <c r="I76" s="3">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="J76" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
@@ -2665,25 +2665,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10200</v>
+        <v>-11000</v>
       </c>
       <c r="E81" s="3">
-        <v>-19800</v>
+        <v>-21300</v>
       </c>
       <c r="F81" s="3">
-        <v>-16200</v>
+        <v>-17500</v>
       </c>
       <c r="G81" s="3">
-        <v>-18800</v>
+        <v>-20300</v>
       </c>
       <c r="H81" s="3">
-        <v>-30400</v>
+        <v>-32700</v>
       </c>
       <c r="I81" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="J81" s="3">
-        <v>-6800</v>
+        <v>-7300</v>
       </c>
       <c r="K81" s="3">
         <v>-5900</v>
@@ -2709,16 +2709,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="E83" s="3">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="F83" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
@@ -2727,7 +2727,7 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -2892,22 +2892,22 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>8500</v>
+        <v>9100</v>
       </c>
       <c r="F89" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
       </c>
       <c r="H89" s="3">
-        <v>-9200</v>
+        <v>-9900</v>
       </c>
       <c r="I89" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="J89" s="3">
-        <v>-5600</v>
+        <v>-6000</v>
       </c>
       <c r="K89" s="3">
         <v>-1300</v>
@@ -3023,19 +3023,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32500</v>
+        <v>-34900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3800</v>
+        <v>-4100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3100</v>
+        <v>-3400</v>
       </c>
       <c r="G94" s="3">
-        <v>-5000</v>
+        <v>-5400</v>
       </c>
       <c r="H94" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16900</v>
+        <v>18200</v>
       </c>
       <c r="E100" s="3">
-        <v>30300</v>
+        <v>32600</v>
       </c>
       <c r="F100" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G100" s="3">
-        <v>11300</v>
+        <v>12100</v>
       </c>
       <c r="H100" s="3">
-        <v>9600</v>
+        <v>10400</v>
       </c>
       <c r="I100" s="3">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="J100" s="3">
-        <v>6300</v>
+        <v>6800</v>
       </c>
       <c r="K100" s="3">
         <v>1300</v>
@@ -3217,7 +3217,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
         <v>-400</v>
@@ -3229,7 +3229,7 @@
         <v>-800</v>
       </c>
       <c r="H101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
@@ -3247,25 +3247,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13700</v>
+        <v>-14800</v>
       </c>
       <c r="E102" s="3">
-        <v>34600</v>
+        <v>37200</v>
       </c>
       <c r="F102" s="3">
-        <v>-6500</v>
+        <v>-7000</v>
       </c>
       <c r="G102" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="H102" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="I102" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="J102" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>BRAG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,109 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42766</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42400</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42035</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>85300</v>
+        <v>123200</v>
       </c>
       <c r="E8" s="3">
-        <v>67900</v>
+        <v>84800</v>
       </c>
       <c r="F8" s="3">
-        <v>38900</v>
+        <v>67500</v>
       </c>
       <c r="G8" s="3">
+        <v>38700</v>
+      </c>
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
-        <v>15700</v>
-      </c>
       <c r="I8" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43900</v>
+        <v>57600</v>
       </c>
       <c r="E9" s="3">
-        <v>38400</v>
+        <v>43600</v>
       </c>
       <c r="F9" s="3">
-        <v>21300</v>
+        <v>38100</v>
       </c>
       <c r="G9" s="3">
+        <v>21200</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
+      <c r="I9" s="3">
+        <v>8300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -769,29 +775,32 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>41400</v>
+        <v>65500</v>
       </c>
       <c r="E10" s="3">
-        <v>29500</v>
+        <v>41200</v>
       </c>
       <c r="F10" s="3">
-        <v>17600</v>
+        <v>29400</v>
       </c>
       <c r="G10" s="3">
+        <v>17500</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
+      <c r="I10" s="3">
+        <v>7200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -834,18 +847,21 @@
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
         <v>900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1700</v>
       </c>
       <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>16800</v>
+        <v>1900</v>
       </c>
       <c r="F14" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G14" s="3">
         <v>7800</v>
       </c>
-      <c r="G14" s="3">
-        <v>16100</v>
-      </c>
       <c r="H14" s="3">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="I14" s="3">
+        <v>18400</v>
+      </c>
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E15" s="3">
         <v>7000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4200</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
       </c>
       <c r="I15" s="3">
+        <v>800</v>
+      </c>
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>94800</v>
+        <v>124400</v>
       </c>
       <c r="E17" s="3">
-        <v>85300</v>
+        <v>94200</v>
       </c>
       <c r="F17" s="3">
-        <v>50700</v>
+        <v>84800</v>
       </c>
       <c r="G17" s="3">
-        <v>8100</v>
+        <v>50400</v>
       </c>
       <c r="H17" s="3">
-        <v>48200</v>
+        <v>8000</v>
       </c>
       <c r="I17" s="3">
-        <v>7400</v>
+        <v>47900</v>
       </c>
       <c r="J17" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K17" s="3">
         <v>9400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
-        <v>-17400</v>
-      </c>
       <c r="F18" s="3">
-        <v>-11800</v>
+        <v>-17300</v>
       </c>
       <c r="G18" s="3">
-        <v>-7000</v>
+        <v>-11700</v>
       </c>
       <c r="H18" s="3">
-        <v>-32500</v>
+        <v>-6900</v>
       </c>
       <c r="I18" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="J18" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,23 +1051,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1043,119 +1076,131 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
-        <v>-14700</v>
-      </c>
       <c r="F21" s="3">
-        <v>-11300</v>
+        <v>-14600</v>
       </c>
       <c r="G21" s="3">
-        <v>-6200</v>
+        <v>-11200</v>
       </c>
       <c r="H21" s="3">
-        <v>-31700</v>
+        <v>-6100</v>
       </c>
       <c r="I21" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9800</v>
+        <v>-2800</v>
       </c>
       <c r="E23" s="3">
-        <v>-19400</v>
+        <v>-9700</v>
       </c>
       <c r="F23" s="3">
-        <v>-14400</v>
+        <v>-19300</v>
       </c>
       <c r="G23" s="3">
-        <v>-7000</v>
+        <v>-14300</v>
       </c>
       <c r="H23" s="3">
-        <v>-32900</v>
+        <v>-6900</v>
       </c>
       <c r="I23" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1168,9 +1213,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11000</v>
+        <v>-5100</v>
       </c>
       <c r="E26" s="3">
-        <v>-21200</v>
+        <v>-10900</v>
       </c>
       <c r="F26" s="3">
-        <v>-15200</v>
+        <v>-21000</v>
       </c>
       <c r="G26" s="3">
-        <v>-7000</v>
+        <v>-15100</v>
       </c>
       <c r="H26" s="3">
-        <v>-32900</v>
+        <v>-6900</v>
       </c>
       <c r="I26" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11000</v>
+        <v>-5100</v>
       </c>
       <c r="E27" s="3">
-        <v>-21200</v>
+        <v>-10900</v>
       </c>
       <c r="F27" s="3">
-        <v>-15200</v>
+        <v>-21000</v>
       </c>
       <c r="G27" s="3">
-        <v>-7000</v>
+        <v>-15100</v>
       </c>
       <c r="H27" s="3">
-        <v>-32900</v>
+        <v>-6900</v>
       </c>
       <c r="I27" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,29 +1345,32 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2300</v>
       </c>
-      <c r="G29" s="3">
-        <v>-13300</v>
-      </c>
       <c r="H29" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,24 +1444,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1403,44 +1472,50 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11000</v>
+        <v>-5100</v>
       </c>
       <c r="E33" s="3">
-        <v>-21300</v>
+        <v>-10900</v>
       </c>
       <c r="F33" s="3">
-        <v>-17500</v>
+        <v>-21200</v>
       </c>
       <c r="G33" s="3">
-        <v>-20300</v>
+        <v>-17400</v>
       </c>
       <c r="H33" s="3">
-        <v>-32700</v>
+        <v>-20100</v>
       </c>
       <c r="I33" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11000</v>
+        <v>-5100</v>
       </c>
       <c r="E35" s="3">
-        <v>-21300</v>
+        <v>-10900</v>
       </c>
       <c r="F35" s="3">
-        <v>-17500</v>
+        <v>-21200</v>
       </c>
       <c r="G35" s="3">
-        <v>-20300</v>
+        <v>-17400</v>
       </c>
       <c r="H35" s="3">
-        <v>-32700</v>
+        <v>-20100</v>
       </c>
       <c r="I35" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42766</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42400</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42035</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,38 +1647,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23400</v>
+        <v>16400</v>
       </c>
       <c r="E41" s="3">
-        <v>38200</v>
+        <v>23300</v>
       </c>
       <c r="F41" s="3">
+        <v>37900</v>
+      </c>
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
-        <v>20600</v>
-      </c>
       <c r="H41" s="3">
+        <v>20400</v>
+      </c>
+      <c r="I41" s="3">
         <v>7000</v>
       </c>
-      <c r="I41" s="3">
-        <v>5000</v>
-      </c>
       <c r="J41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,39 +1710,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E43" s="3">
         <v>12400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H43" s="3">
         <v>15300</v>
       </c>
-      <c r="F43" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4900</v>
-      </c>
       <c r="I43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,80 +1776,89 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
-        <v>2200</v>
-      </c>
       <c r="G45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39400</v>
+        <v>43200</v>
       </c>
       <c r="E46" s="3">
-        <v>53800</v>
+        <v>39200</v>
       </c>
       <c r="F46" s="3">
-        <v>12200</v>
+        <v>53500</v>
       </c>
       <c r="G46" s="3">
-        <v>14300</v>
+        <v>12100</v>
       </c>
       <c r="H46" s="3">
-        <v>4900</v>
+        <v>14200</v>
       </c>
       <c r="I46" s="3">
-        <v>5400</v>
+        <v>4800</v>
       </c>
       <c r="J46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
@@ -1771,29 +1875,32 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -1801,39 +1908,45 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>75800</v>
+        <v>96000</v>
       </c>
       <c r="E49" s="3">
-        <v>46400</v>
+        <v>75300</v>
       </c>
       <c r="F49" s="3">
-        <v>50500</v>
+        <v>46200</v>
       </c>
       <c r="G49" s="3">
-        <v>51500</v>
+        <v>50200</v>
       </c>
       <c r="H49" s="3">
-        <v>10100</v>
+        <v>51200</v>
       </c>
       <c r="I49" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,29 +2007,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5600</v>
+        <v>10700</v>
       </c>
       <c r="E52" s="3">
-        <v>3700</v>
+        <v>5500</v>
       </c>
       <c r="F52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -1921,9 +2040,12 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>122000</v>
+        <v>151800</v>
       </c>
       <c r="E54" s="3">
-        <v>105500</v>
+        <v>121200</v>
       </c>
       <c r="F54" s="3">
-        <v>64200</v>
+        <v>104800</v>
       </c>
       <c r="G54" s="3">
-        <v>66200</v>
+        <v>63800</v>
       </c>
       <c r="H54" s="3">
-        <v>15200</v>
+        <v>65800</v>
       </c>
       <c r="I54" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J54" s="3">
         <v>5500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3700</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,146 +2139,159 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
-        <v>9400</v>
-      </c>
       <c r="F57" s="3">
-        <v>13000</v>
+        <v>9300</v>
       </c>
       <c r="G57" s="3">
-        <v>11700</v>
+        <v>12900</v>
       </c>
       <c r="H57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20000</v>
+        <v>28500</v>
       </c>
       <c r="E59" s="3">
-        <v>34400</v>
+        <v>19900</v>
       </c>
       <c r="F59" s="3">
-        <v>17200</v>
+        <v>34200</v>
       </c>
       <c r="G59" s="3">
-        <v>7500</v>
+        <v>17100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22400</v>
+        <v>35300</v>
       </c>
       <c r="E60" s="3">
-        <v>43900</v>
+        <v>22300</v>
       </c>
       <c r="F60" s="3">
-        <v>30400</v>
+        <v>43700</v>
       </c>
       <c r="G60" s="3">
-        <v>14800</v>
+        <v>30200</v>
       </c>
       <c r="H60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2159,29 +2301,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
-        <v>23100</v>
-      </c>
       <c r="G62" s="3">
-        <v>27800</v>
+        <v>23000</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>27600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2189,9 +2334,12 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25200</v>
+        <v>50700</v>
       </c>
       <c r="E66" s="3">
-        <v>47100</v>
+        <v>25000</v>
       </c>
       <c r="F66" s="3">
-        <v>54500</v>
+        <v>46800</v>
       </c>
       <c r="G66" s="3">
-        <v>43000</v>
+        <v>54200</v>
       </c>
       <c r="H66" s="3">
+        <v>42700</v>
+      </c>
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-100500</v>
+        <v>-104900</v>
       </c>
       <c r="E72" s="3">
-        <v>-86600</v>
+        <v>-99900</v>
       </c>
       <c r="F72" s="3">
-        <v>-65000</v>
+        <v>-86100</v>
       </c>
       <c r="G72" s="3">
-        <v>-37700</v>
+        <v>-64600</v>
       </c>
       <c r="H72" s="3">
-        <v>-25400</v>
+        <v>-37500</v>
       </c>
       <c r="I72" s="3">
-        <v>-34000</v>
+        <v>-25200</v>
       </c>
       <c r="J72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-31100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>96800</v>
+        <v>101100</v>
       </c>
       <c r="E76" s="3">
-        <v>58400</v>
+        <v>96200</v>
       </c>
       <c r="F76" s="3">
-        <v>9700</v>
+        <v>58000</v>
       </c>
       <c r="G76" s="3">
-        <v>23300</v>
+        <v>9600</v>
       </c>
       <c r="H76" s="3">
-        <v>13300</v>
+        <v>23100</v>
       </c>
       <c r="I76" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J76" s="3">
         <v>4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42766</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42400</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42035</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11000</v>
+        <v>-5100</v>
       </c>
       <c r="E81" s="3">
-        <v>-21300</v>
+        <v>-10900</v>
       </c>
       <c r="F81" s="3">
-        <v>-17500</v>
+        <v>-21200</v>
       </c>
       <c r="G81" s="3">
-        <v>-20300</v>
+        <v>-17400</v>
       </c>
       <c r="H81" s="3">
-        <v>-32700</v>
+        <v>-20100</v>
       </c>
       <c r="I81" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
       </c>
       <c r="I83" s="3">
+        <v>800</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,28 +3146,29 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -2956,9 +3176,12 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34900</v>
+        <v>-24500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4100</v>
+        <v>-34700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3400</v>
+        <v>-4000</v>
       </c>
       <c r="G94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18200</v>
+        <v>10200</v>
       </c>
       <c r="E100" s="3">
-        <v>32600</v>
+        <v>18000</v>
       </c>
       <c r="F100" s="3">
+        <v>32400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12100</v>
       </c>
-      <c r="H100" s="3">
-        <v>10400</v>
-      </c>
       <c r="I100" s="3">
-        <v>6100</v>
+        <v>10300</v>
       </c>
       <c r="J100" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K100" s="3">
         <v>6800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-400</v>
       </c>
       <c r="F101" s="3">
         <v>-400</v>
       </c>
       <c r="G101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14800</v>
+        <v>-6900</v>
       </c>
       <c r="E102" s="3">
-        <v>37200</v>
+        <v>-14700</v>
       </c>
       <c r="F102" s="3">
+        <v>37000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
@@ -719,22 +719,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>123200</v>
+        <v>124100</v>
       </c>
       <c r="E8" s="3">
-        <v>84800</v>
+        <v>85400</v>
       </c>
       <c r="F8" s="3">
-        <v>67500</v>
+        <v>68000</v>
       </c>
       <c r="G8" s="3">
-        <v>38700</v>
+        <v>38900</v>
       </c>
       <c r="H8" s="3">
         <v>1100</v>
       </c>
       <c r="I8" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="J8" s="3">
         <v>1600</v>
@@ -752,22 +752,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>57600</v>
+        <v>58100</v>
       </c>
       <c r="E9" s="3">
-        <v>43600</v>
+        <v>43900</v>
       </c>
       <c r="F9" s="3">
-        <v>38100</v>
+        <v>38400</v>
       </c>
       <c r="G9" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="H9" s="3">
         <v>600</v>
       </c>
       <c r="I9" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -785,22 +785,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>65500</v>
+        <v>66000</v>
       </c>
       <c r="E10" s="3">
-        <v>41200</v>
+        <v>41500</v>
       </c>
       <c r="F10" s="3">
-        <v>29400</v>
+        <v>29600</v>
       </c>
       <c r="G10" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="H10" s="3">
         <v>500</v>
       </c>
       <c r="I10" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -902,19 +902,19 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="G14" s="3">
         <v>7800</v>
       </c>
       <c r="H14" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="I14" s="3">
-        <v>18400</v>
+        <v>18600</v>
       </c>
       <c r="J14" s="3">
         <v>1800</v>
@@ -932,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="E15" s="3">
         <v>7000</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>124400</v>
+        <v>125300</v>
       </c>
       <c r="E17" s="3">
-        <v>94200</v>
+        <v>94900</v>
       </c>
       <c r="F17" s="3">
-        <v>84800</v>
+        <v>85400</v>
       </c>
       <c r="G17" s="3">
-        <v>50400</v>
+        <v>50800</v>
       </c>
       <c r="H17" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="I17" s="3">
-        <v>47900</v>
+        <v>48200</v>
       </c>
       <c r="J17" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="K17" s="3">
         <v>9400</v>
@@ -1016,19 +1016,19 @@
         <v>-9500</v>
       </c>
       <c r="F18" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="G18" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="H18" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="I18" s="3">
-        <v>-32300</v>
+        <v>-32500</v>
       </c>
       <c r="J18" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K18" s="3">
         <v>-7400</v>
@@ -1097,16 +1097,16 @@
         <v>-2400</v>
       </c>
       <c r="F21" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="G21" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="H21" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="I21" s="3">
-        <v>-31500</v>
+        <v>-31700</v>
       </c>
       <c r="J21" s="3">
         <v>-5200</v>
@@ -1160,19 +1160,19 @@
         <v>-2800</v>
       </c>
       <c r="E23" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="F23" s="3">
-        <v>-19300</v>
+        <v>-19400</v>
       </c>
       <c r="G23" s="3">
-        <v>-14300</v>
+        <v>-14400</v>
       </c>
       <c r="H23" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="I23" s="3">
-        <v>-32700</v>
+        <v>-32900</v>
       </c>
       <c r="J23" s="3">
         <v>-5800</v>
@@ -1196,7 +1196,7 @@
         <v>1200</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
         <v>800</v>
@@ -1259,19 +1259,19 @@
         <v>-5100</v>
       </c>
       <c r="E26" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="F26" s="3">
-        <v>-21000</v>
+        <v>-21200</v>
       </c>
       <c r="G26" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="H26" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="I26" s="3">
-        <v>-32700</v>
+        <v>-32900</v>
       </c>
       <c r="J26" s="3">
         <v>-5800</v>
@@ -1292,19 +1292,19 @@
         <v>-5100</v>
       </c>
       <c r="E27" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="F27" s="3">
-        <v>-21000</v>
+        <v>-21200</v>
       </c>
       <c r="G27" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="H27" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="I27" s="3">
-        <v>-32700</v>
+        <v>-32900</v>
       </c>
       <c r="J27" s="3">
         <v>-5800</v>
@@ -1367,7 +1367,7 @@
         <v>-2300</v>
       </c>
       <c r="H29" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="I29" s="3">
         <v>100</v>
@@ -1490,19 +1490,19 @@
         <v>-5100</v>
       </c>
       <c r="E33" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="F33" s="3">
-        <v>-21200</v>
+        <v>-21300</v>
       </c>
       <c r="G33" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="H33" s="3">
-        <v>-20100</v>
+        <v>-20300</v>
       </c>
       <c r="I33" s="3">
-        <v>-32500</v>
+        <v>-32800</v>
       </c>
       <c r="J33" s="3">
         <v>-5800</v>
@@ -1556,19 +1556,19 @@
         <v>-5100</v>
       </c>
       <c r="E35" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="F35" s="3">
-        <v>-21200</v>
+        <v>-21300</v>
       </c>
       <c r="G35" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="H35" s="3">
-        <v>-20100</v>
+        <v>-20300</v>
       </c>
       <c r="I35" s="3">
-        <v>-32500</v>
+        <v>-32800</v>
       </c>
       <c r="J35" s="3">
         <v>-5800</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="E41" s="3">
-        <v>23300</v>
+        <v>23400</v>
       </c>
       <c r="F41" s="3">
-        <v>37900</v>
+        <v>38200</v>
       </c>
       <c r="G41" s="3">
         <v>1000</v>
       </c>
       <c r="H41" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="I41" s="3">
         <v>7000</v>
       </c>
       <c r="J41" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K41" s="3">
         <v>1300</v>
@@ -1720,22 +1720,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="E43" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="F43" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G43" s="3">
         <v>9000</v>
       </c>
       <c r="H43" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="I43" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -1795,7 +1795,7 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H45" s="3">
         <v>900</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43200</v>
+        <v>43500</v>
       </c>
       <c r="E46" s="3">
-        <v>39200</v>
+        <v>39500</v>
       </c>
       <c r="F46" s="3">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="G46" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="H46" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="I46" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J46" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K46" s="3">
         <v>2200</v>
@@ -1918,22 +1918,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>96000</v>
+        <v>96700</v>
       </c>
       <c r="E49" s="3">
-        <v>75300</v>
+        <v>75800</v>
       </c>
       <c r="F49" s="3">
-        <v>46200</v>
+        <v>46500</v>
       </c>
       <c r="G49" s="3">
-        <v>50200</v>
+        <v>50500</v>
       </c>
       <c r="H49" s="3">
-        <v>51200</v>
+        <v>51600</v>
       </c>
       <c r="I49" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2017,13 +2017,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="E52" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2083,22 +2083,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>151800</v>
+        <v>152900</v>
       </c>
       <c r="E54" s="3">
-        <v>121200</v>
+        <v>122100</v>
       </c>
       <c r="F54" s="3">
-        <v>104800</v>
+        <v>105600</v>
       </c>
       <c r="G54" s="3">
-        <v>63800</v>
+        <v>64300</v>
       </c>
       <c r="H54" s="3">
-        <v>65800</v>
+        <v>66300</v>
       </c>
       <c r="I54" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J54" s="3">
         <v>5500</v>
@@ -2152,16 +2152,16 @@
         <v>2100</v>
       </c>
       <c r="F57" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="G57" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="H57" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="I57" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -2212,19 +2212,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="E59" s="3">
-        <v>19900</v>
+        <v>20100</v>
       </c>
       <c r="F59" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="G59" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="H59" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35300</v>
+        <v>35600</v>
       </c>
       <c r="E60" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="F60" s="3">
-        <v>43700</v>
+        <v>44000</v>
       </c>
       <c r="G60" s="3">
-        <v>30200</v>
+        <v>30500</v>
       </c>
       <c r="H60" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="I60" s="3">
         <v>1900</v>
@@ -2320,10 +2320,10 @@
         <v>2300</v>
       </c>
       <c r="G62" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="H62" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -2443,19 +2443,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50700</v>
+        <v>51000</v>
       </c>
       <c r="E66" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="F66" s="3">
-        <v>46800</v>
+        <v>47100</v>
       </c>
       <c r="G66" s="3">
-        <v>54200</v>
+        <v>54600</v>
       </c>
       <c r="H66" s="3">
-        <v>42700</v>
+        <v>43000</v>
       </c>
       <c r="I66" s="3">
         <v>1900</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-104900</v>
+        <v>-105700</v>
       </c>
       <c r="E72" s="3">
-        <v>-99900</v>
+        <v>-100600</v>
       </c>
       <c r="F72" s="3">
-        <v>-86100</v>
+        <v>-86700</v>
       </c>
       <c r="G72" s="3">
-        <v>-64600</v>
+        <v>-65100</v>
       </c>
       <c r="H72" s="3">
-        <v>-37500</v>
+        <v>-37800</v>
       </c>
       <c r="I72" s="3">
-        <v>-25200</v>
+        <v>-25400</v>
       </c>
       <c r="J72" s="3">
-        <v>-33800</v>
+        <v>-34100</v>
       </c>
       <c r="K72" s="3">
         <v>-31100</v>
@@ -2755,22 +2755,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>101100</v>
+        <v>101800</v>
       </c>
       <c r="E76" s="3">
-        <v>96200</v>
+        <v>96900</v>
       </c>
       <c r="F76" s="3">
-        <v>58000</v>
+        <v>58400</v>
       </c>
       <c r="G76" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="H76" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="I76" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="J76" s="3">
         <v>4400</v>
@@ -2862,19 +2862,19 @@
         <v>-5100</v>
       </c>
       <c r="E81" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="F81" s="3">
-        <v>-21200</v>
+        <v>-21300</v>
       </c>
       <c r="G81" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="H81" s="3">
-        <v>-20100</v>
+        <v>-20300</v>
       </c>
       <c r="I81" s="3">
-        <v>-32500</v>
+        <v>-32800</v>
       </c>
       <c r="J81" s="3">
         <v>-5800</v>
@@ -2907,7 +2907,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="E83" s="3">
         <v>7000</v>
@@ -3120,7 +3120,7 @@
         <v>-600</v>
       </c>
       <c r="I89" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="J89" s="3">
         <v>-2200</v>
@@ -3252,16 +3252,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24500</v>
+        <v>-24700</v>
       </c>
       <c r="E94" s="3">
-        <v>-34700</v>
+        <v>-35000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H94" s="3">
         <v>-5400</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="E100" s="3">
-        <v>18000</v>
+        <v>18200</v>
       </c>
       <c r="F100" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="G100" s="3">
         <v>-800</v>
       </c>
       <c r="H100" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="I100" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="J100" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K100" s="3">
         <v>6800</v>
@@ -3501,10 +3501,10 @@
         <v>-6900</v>
       </c>
       <c r="E102" s="3">
-        <v>-14700</v>
+        <v>-14800</v>
       </c>
       <c r="F102" s="3">
-        <v>37000</v>
+        <v>37200</v>
       </c>
       <c r="G102" s="3">
         <v>-7000</v>

--- a/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRAG_YR_FIN.xlsx
@@ -719,22 +719,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>124100</v>
+        <v>126500</v>
       </c>
       <c r="E8" s="3">
-        <v>85400</v>
+        <v>87000</v>
       </c>
       <c r="F8" s="3">
-        <v>68000</v>
+        <v>69300</v>
       </c>
       <c r="G8" s="3">
-        <v>38900</v>
+        <v>39700</v>
       </c>
       <c r="H8" s="3">
         <v>1100</v>
       </c>
       <c r="I8" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="J8" s="3">
         <v>1600</v>
@@ -752,22 +752,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>58100</v>
+        <v>59200</v>
       </c>
       <c r="E9" s="3">
-        <v>43900</v>
+        <v>44800</v>
       </c>
       <c r="F9" s="3">
-        <v>38400</v>
+        <v>39100</v>
       </c>
       <c r="G9" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="H9" s="3">
         <v>600</v>
       </c>
       <c r="I9" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
@@ -785,22 +785,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>66000</v>
+        <v>67300</v>
       </c>
       <c r="E10" s="3">
-        <v>41500</v>
+        <v>42300</v>
       </c>
       <c r="F10" s="3">
-        <v>29600</v>
+        <v>30100</v>
       </c>
       <c r="G10" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="H10" s="3">
         <v>500</v>
       </c>
       <c r="I10" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
@@ -905,16 +905,16 @@
         <v>2000</v>
       </c>
       <c r="F14" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="G14" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="H14" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="I14" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="J14" s="3">
         <v>1800</v>
@@ -932,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="E15" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F15" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -950,7 +950,7 @@
         <v>800</v>
       </c>
       <c r="J15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>125300</v>
+        <v>127700</v>
       </c>
       <c r="E17" s="3">
-        <v>94900</v>
+        <v>96700</v>
       </c>
       <c r="F17" s="3">
-        <v>85400</v>
+        <v>87000</v>
       </c>
       <c r="G17" s="3">
-        <v>50800</v>
+        <v>51700</v>
       </c>
       <c r="H17" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="I17" s="3">
-        <v>48200</v>
+        <v>49100</v>
       </c>
       <c r="J17" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="K17" s="3">
         <v>9400</v>
@@ -1013,22 +1013,22 @@
         <v>-1200</v>
       </c>
       <c r="E18" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="F18" s="3">
-        <v>-17400</v>
+        <v>-17800</v>
       </c>
       <c r="G18" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="H18" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="I18" s="3">
-        <v>-32500</v>
+        <v>-33200</v>
       </c>
       <c r="J18" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="K18" s="3">
         <v>-7400</v>
@@ -1067,7 +1067,7 @@
         <v>-1500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="E21" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="F21" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="G21" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="H21" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="I21" s="3">
-        <v>-31700</v>
+        <v>-32300</v>
       </c>
       <c r="J21" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="K21" s="3">
         <v>-6700</v>
@@ -1124,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="E23" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="F23" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="G23" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="H23" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="I23" s="3">
-        <v>-32900</v>
+        <v>-33500</v>
       </c>
       <c r="J23" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="K23" s="3">
         <v>-7300</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E26" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="F26" s="3">
-        <v>-21200</v>
+        <v>-21600</v>
       </c>
       <c r="G26" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="H26" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="I26" s="3">
-        <v>-32900</v>
+        <v>-33500</v>
       </c>
       <c r="J26" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="K26" s="3">
         <v>-7300</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E27" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="F27" s="3">
-        <v>-21200</v>
+        <v>-21600</v>
       </c>
       <c r="G27" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="H27" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="I27" s="3">
-        <v>-32900</v>
+        <v>-33500</v>
       </c>
       <c r="J27" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="K27" s="3">
         <v>-7300</v>
@@ -1367,7 +1367,7 @@
         <v>-2300</v>
       </c>
       <c r="H29" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="I29" s="3">
         <v>100</v>
@@ -1463,7 +1463,7 @@
         <v>1500</v>
       </c>
       <c r="G32" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E33" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="F33" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="G33" s="3">
-        <v>-17500</v>
+        <v>-17800</v>
       </c>
       <c r="H33" s="3">
-        <v>-20300</v>
+        <v>-20700</v>
       </c>
       <c r="I33" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="J33" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="K33" s="3">
         <v>-7300</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E35" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="F35" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="G35" s="3">
-        <v>-17500</v>
+        <v>-17800</v>
       </c>
       <c r="H35" s="3">
-        <v>-20300</v>
+        <v>-20700</v>
       </c>
       <c r="I35" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="J35" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="K35" s="3">
         <v>-7300</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="E41" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="F41" s="3">
-        <v>38200</v>
+        <v>39000</v>
       </c>
       <c r="G41" s="3">
         <v>1000</v>
       </c>
       <c r="H41" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="I41" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J41" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K41" s="3">
         <v>1300</v>
@@ -1720,22 +1720,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="E43" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="F43" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="G43" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="H43" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="I43" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -1798,7 +1798,7 @@
         <v>2200</v>
       </c>
       <c r="H45" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="3">
         <v>1000</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>43500</v>
+        <v>44400</v>
       </c>
       <c r="E46" s="3">
-        <v>39500</v>
+        <v>40200</v>
       </c>
       <c r="F46" s="3">
-        <v>53900</v>
+        <v>54900</v>
       </c>
       <c r="G46" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="H46" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="I46" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J46" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K46" s="3">
         <v>2200</v>
@@ -1891,7 +1891,7 @@
         <v>1200</v>
       </c>
       <c r="F48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G48" s="3">
         <v>1500</v>
@@ -1918,22 +1918,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>96700</v>
+        <v>98600</v>
       </c>
       <c r="E49" s="3">
-        <v>75800</v>
+        <v>77300</v>
       </c>
       <c r="F49" s="3">
-        <v>46500</v>
+        <v>47400</v>
       </c>
       <c r="G49" s="3">
-        <v>50500</v>
+        <v>51500</v>
       </c>
       <c r="H49" s="3">
-        <v>51600</v>
+        <v>52500</v>
       </c>
       <c r="I49" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2017,10 +2017,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="E52" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F52" s="3">
         <v>3700</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>152900</v>
+        <v>155800</v>
       </c>
       <c r="E54" s="3">
-        <v>122100</v>
+        <v>124500</v>
       </c>
       <c r="F54" s="3">
-        <v>105600</v>
+        <v>107600</v>
       </c>
       <c r="G54" s="3">
-        <v>64300</v>
+        <v>65500</v>
       </c>
       <c r="H54" s="3">
-        <v>66300</v>
+        <v>67600</v>
       </c>
       <c r="I54" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="J54" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K54" s="3">
         <v>4700</v>
@@ -2146,19 +2146,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F57" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="G57" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="H57" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="I57" s="3">
         <v>5000</v>
@@ -2212,19 +2212,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="E59" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="F59" s="3">
-        <v>34400</v>
+        <v>35100</v>
       </c>
       <c r="G59" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="H59" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35600</v>
+        <v>36300</v>
       </c>
       <c r="E60" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="F60" s="3">
-        <v>44000</v>
+        <v>44800</v>
       </c>
       <c r="G60" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="H60" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="I60" s="3">
         <v>1900</v>
@@ -2278,7 +2278,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
@@ -2311,7 +2311,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E62" s="3">
         <v>2100</v>
@@ -2320,10 +2320,10 @@
         <v>2300</v>
       </c>
       <c r="G62" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="H62" s="3">
-        <v>27800</v>
+        <v>28300</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -2443,19 +2443,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51000</v>
+        <v>52000</v>
       </c>
       <c r="E66" s="3">
-        <v>25200</v>
+        <v>25700</v>
       </c>
       <c r="F66" s="3">
-        <v>47100</v>
+        <v>48100</v>
       </c>
       <c r="G66" s="3">
-        <v>54600</v>
+        <v>55600</v>
       </c>
       <c r="H66" s="3">
-        <v>43000</v>
+        <v>43800</v>
       </c>
       <c r="I66" s="3">
         <v>1900</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-105700</v>
+        <v>-107700</v>
       </c>
       <c r="E72" s="3">
-        <v>-100600</v>
+        <v>-102500</v>
       </c>
       <c r="F72" s="3">
-        <v>-86700</v>
+        <v>-88300</v>
       </c>
       <c r="G72" s="3">
-        <v>-65100</v>
+        <v>-66300</v>
       </c>
       <c r="H72" s="3">
-        <v>-37800</v>
+        <v>-38500</v>
       </c>
       <c r="I72" s="3">
-        <v>-25400</v>
+        <v>-25900</v>
       </c>
       <c r="J72" s="3">
-        <v>-34100</v>
+        <v>-34700</v>
       </c>
       <c r="K72" s="3">
         <v>-31100</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>101800</v>
+        <v>103800</v>
       </c>
       <c r="E76" s="3">
-        <v>96900</v>
+        <v>98800</v>
       </c>
       <c r="F76" s="3">
-        <v>58400</v>
+        <v>59500</v>
       </c>
       <c r="G76" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="H76" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="I76" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="J76" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K76" s="3">
         <v>2200</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E81" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="F81" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="G81" s="3">
-        <v>-17500</v>
+        <v>-17800</v>
       </c>
       <c r="H81" s="3">
-        <v>-20300</v>
+        <v>-20700</v>
       </c>
       <c r="I81" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="J81" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="K81" s="3">
         <v>-7300</v>
@@ -2907,16 +2907,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="E83" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F83" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G83" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
@@ -2925,7 +2925,7 @@
         <v>800</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
@@ -3105,13 +3105,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="G89" s="3">
         <v>-2500</v>
@@ -3120,7 +3120,7 @@
         <v>-600</v>
       </c>
       <c r="I89" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="J89" s="3">
         <v>-2200</v>
@@ -3252,10 +3252,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24700</v>
+        <v>-25200</v>
       </c>
       <c r="E94" s="3">
-        <v>-35000</v>
+        <v>-35600</v>
       </c>
       <c r="F94" s="3">
         <v>-4100</v>
@@ -3264,10 +3264,10 @@
         <v>-3400</v>
       </c>
       <c r="H94" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="I94" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="E100" s="3">
-        <v>18200</v>
+        <v>18500</v>
       </c>
       <c r="F100" s="3">
-        <v>32600</v>
+        <v>33200</v>
       </c>
       <c r="G100" s="3">
         <v>-800</v>
       </c>
       <c r="H100" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="I100" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="J100" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K100" s="3">
         <v>6800</v>
@@ -3471,13 +3471,13 @@
         <v>2100</v>
       </c>
       <c r="F101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
       </c>
       <c r="H101" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I101" s="3">
         <v>400</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="E102" s="3">
-        <v>-14800</v>
+        <v>-15100</v>
       </c>
       <c r="F102" s="3">
-        <v>37200</v>
+        <v>37900</v>
       </c>
       <c r="G102" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="H102" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I102" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J102" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K102" s="3">
         <v>800</v>
